--- a/Progesso trabalho.xlsx
+++ b/Progesso trabalho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C79793-C9E9-429C-914B-25F1DED39D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA4FB9-05C1-4FA4-97B1-385CA71FFDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="19455" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Vending Machine EDA</t>
   </si>
@@ -180,6 +180,42 @@
   </si>
   <si>
     <t>soma de tópicos completos</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <t>5).3)</t>
+  </si>
+  <si>
+    <t>5).4)</t>
+  </si>
+  <si>
+    <t>5).5)</t>
+  </si>
+  <si>
+    <t>5).1)</t>
+  </si>
+  <si>
+    <t>5).2)</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Introdução</t>
+  </si>
+  <si>
+    <t>Implementação</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
   </si>
 </sst>
 </file>
@@ -228,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -295,31 +331,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,18 +369,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,314 +696,386 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="I4" s="18" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="I4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19">
-        <f>K6/20</f>
-        <v>0.35</v>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13">
+        <f>K6/25</f>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="17">
-        <f>SUM(A4:A5,A18,A20,A21,A24,A27)</f>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="12">
+        <f>SUM(A4:A5,A8:A24,A27,A30:A34)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="24">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C27:D27"/>
@@ -954,13 +1085,12 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progesso trabalho.xlsx
+++ b/Progesso trabalho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA4FB9-05C1-4FA4-97B1-385CA71FFDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75035A2-DB24-4DA1-A7DF-1D51F319BE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="19455" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19605" yWindow="-90" windowWidth="19455" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Vending Machine EDA</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Conclusão</t>
+  </si>
+  <si>
+    <t>/25</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,37 +375,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,89 +688,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="I4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="I4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="13">
         <f>K6/25</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="15" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="12">
         <f>SUM(A4:A5,A8:A24,A27,A30:A34)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -779,7 +788,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -792,7 +801,7 @@
       <c r="D9" s="10"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -805,7 +814,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -817,7 +826,7 @@
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -829,7 +838,7 @@
       </c>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -841,7 +850,7 @@
       </c>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -853,30 +862,30 @@
       </c>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -900,10 +909,10 @@
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -924,10 +933,10 @@
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -936,34 +945,34 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
+      <c r="A22" s="12">
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
+      <c r="A23" s="12">
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -972,10 +981,10 @@
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -992,10 +1001,10 @@
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -1009,13 +1018,13 @@
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1027,7 +1036,7 @@
       <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1067,6 +1076,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -1083,14 +1100,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
